--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -132,6 +141,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,537 +450,258 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F24:F25"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43484</v>
+        <v>43810</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2">
+        <v>2951</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>1282</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43510</v>
+        <v>43843</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>568</v>
+        <v>3052</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>568</v>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>101</v>
       </c>
       <c r="E4" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>2595.7600000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*E4</f>
+        <v>453.49</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>553.12</v>
+      </c>
+      <c r="H4" s="9">
+        <f>SUM(G4,G5)</f>
+        <v>553.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>278</v>
+        <v>1323</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>664.42000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*E5</f>
+        <v>99.63000000000001</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43550</v>
+        <v>43879</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1472</v>
+        <v>3102</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>904</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>4131.2800000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>224.5</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>273.10000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <f>SUM(G6,G7)</f>
+        <v>273.10000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>709</v>
+        <v>1343</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>1030.0900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>48.6</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43580</v>
+        <v>43914</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1958</v>
+        <v>3166</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>486</v>
+        <f t="shared" ref="D8:D9" si="1">C8-C6</f>
+        <v>64</v>
       </c>
       <c r="E8" s="7">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>2221.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D8*E8</f>
+        <v>287.36</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>348.11</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(G8,G9)</f>
+        <v>348.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>918</v>
+        <v>1368</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>209</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>499.51000000000005</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f>D9*E9</f>
+        <v>60.750000000000007</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43612</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2387</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>429</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
-        <v>1960.5300000000002</v>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G4:G9)</f>
+        <v>1174.33</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H4:H9)</f>
+        <v>1174.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1090</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>411.08000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43676</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2481</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D19" si="3">C12-C10</f>
-        <v>94</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>422.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1112</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>53.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43711</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2546</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>291.85000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1127</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43748</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2672</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F21" si="4">D16*E16</f>
-        <v>565.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1169</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>102.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43781</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2857</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>830.65000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1244</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>182.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43810</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2951</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20-C18</f>
-        <v>94</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>422.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1282</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21-C19</f>
-        <v>38</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="4"/>
-        <v>92.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43843</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3052</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22-C20</f>
-        <v>101</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F22" s="5">
-        <f>D22*E22</f>
-        <v>453.49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1323</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23-C21</f>
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F23" s="5">
-        <f>D23*E23</f>
-        <v>99.63000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43879</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3102</v>
-      </c>
-      <c r="D24" s="2">
-        <f>C24-C22</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F24" s="5">
-        <f>D24*E24</f>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1343</v>
-      </c>
-      <c r="D25" s="2">
-        <f>C25-C23</f>
-        <v>20</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F25" s="5">
-        <f>D25*E25</f>
-        <v>48.6</v>
-      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>453.49</v>
       </c>
       <c r="G4" s="9">
@@ -573,7 +573,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>99.63000000000001</v>
       </c>
       <c r="G5" s="8"/>
@@ -597,7 +597,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>224.5</v>
       </c>
       <c r="G6" s="9">
@@ -625,7 +625,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>48.6</v>
       </c>
       <c r="G7" s="8"/>
@@ -642,14 +642,14 @@
         <v>3166</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="1">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
         <v>64</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>287.36</v>
       </c>
       <c r="G8" s="9">
@@ -670,38 +670,90 @@
         <v>1368</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>60.750000000000007</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="8" t="s">
-        <v>10</v>
+      <c r="A10" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3429</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>263</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1180.8700000000001</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G4:G9)</f>
-        <v>1174.33</v>
+        <f>SUM(F10,F11)</f>
+        <v>1423.8700000000001</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H4:H9)</f>
-        <v>1174.33</v>
+        <f>SUM(G10,G11)</f>
+        <v>1423.8700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="8" t="s">
-        <v>11</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1468</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G4:G11)</f>
+        <v>2598.1999999999998</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H4:H11)</f>
+        <v>2598.1999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,24 +736,76 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="s">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3641</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>212</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>951.88</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G4:G11)</f>
-        <v>2598.1999999999998</v>
+        <f>SUM(F12,F13)</f>
+        <v>1134.1300000000001</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H4:H11)</f>
-        <v>2598.1999999999998</v>
+        <f>SUM(G12,G13)</f>
+        <v>1134.1300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="8" t="s">
-        <v>11</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1543</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>182.25</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G4:G13)</f>
+        <v>3732.33</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H4:H13)</f>
+        <v>3732.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,24 +788,78 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="s">
-        <v>10</v>
+      <c r="A14" s="3">
+        <v>44005</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3841</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>898</v>
       </c>
       <c r="G14" s="9">
-        <f>SUM(G4:G13)</f>
-        <v>3732.33</v>
+        <f>SUM(F14,F15)</f>
+        <v>1019.5</v>
       </c>
       <c r="H14" s="9">
-        <f>SUM(H4:H13)</f>
-        <v>3732.33</v>
+        <v>1011.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="8" t="s">
-        <v>11</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1593</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="8"/>
+        <v>121.50000000000001</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(G4:G15)</f>
+        <v>4751.83</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H4:H15)</f>
+        <v>4743.83</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,25 +839,76 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="8" t="s">
+      <c r="A16" s="3">
+        <v>44042</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3949</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
+        <v>108</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>508.68</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>534.18000000000006</v>
+      </c>
+      <c r="H16" s="9">
+        <v>534.17999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1603</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G16" s="9">
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="10"/>
+        <v>25.5</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
         <f>SUM(G4:G15)</f>
         <v>4751.83</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <f>SUM(H4:H15)</f>
         <v>4743.83</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="8" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>-8</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -890,25 +890,76 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4095</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
+        <v>146</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>687.66</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>731.01</v>
+      </c>
+      <c r="H18" s="9">
+        <v>731.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1620</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="12"/>
+        <v>43.349999999999994</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <f>SUM(G4:G15)</f>
-        <v>4751.83</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H4:H15)</f>
-        <v>4743.83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="8" t="s">
+      <c r="G20" s="9">
+        <f>SUM(G4:G19)</f>
+        <v>6017.02</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H4:H19)</f>
+        <v>6009.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
         <v>-8</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -120,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -143,6 +150,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,11 +816,11 @@
         <f t="shared" ref="F14:F15" si="8">D14*E14</f>
         <v>898</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
         <v>1019.5</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <v>1011.5</v>
       </c>
     </row>
@@ -941,26 +949,77 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="8" t="s">
+      <c r="A20" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4244</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="13">C20-C18</f>
+        <v>149</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>701.79</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>849.68999999999994</v>
+      </c>
+      <c r="H20" s="9">
+        <v>849.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1678</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="14"/>
+        <v>147.89999999999998</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
-        <f>SUM(G4:G19)</f>
-        <v>6017.02</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H4:H19)</f>
-        <v>6009.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="8" t="s">
+      <c r="G22" s="9">
+        <f>SUM(G4:G20)</f>
+        <v>6866.71</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H4:H20)</f>
+        <v>6858.7100000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
-        <v>-8</v>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
+        <v>-7.9999999999990905</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,19 +507,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43810</v>
+        <v>43973</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2951</v>
+        <v>3641</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1282</v>
+        <v>1543</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -537,32 +537,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43843</v>
+        <v>44005</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3052</v>
+        <v>3841</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
-        <v>101</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>200</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>453.49</v>
-      </c>
-      <c r="G4" s="9">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>898</v>
+      </c>
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>553.12</v>
-      </c>
-      <c r="H4" s="9">
-        <f>SUM(G4,G5)</f>
-        <v>553.12</v>
+        <v>1019.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1011.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,50 +570,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1323</v>
+        <v>1593</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>99.63000000000001</v>
+        <v>121.50000000000001</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43879</v>
+        <v>44042</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>3102</v>
+        <v>3949</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>108</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>224.5</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>508.68</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>273.10000000000002</v>
+        <v>534.18000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(G6,G7)</f>
-        <v>273.10000000000002</v>
+        <v>534.17999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -623,50 +621,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1343</v>
+        <v>1603</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>48.6</v>
+        <f t="shared" si="3"/>
+        <v>25.5</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43914</v>
+        <v>44095</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3166</v>
+        <v>4095</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
-        <v>64</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>146</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>287.36</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>687.66</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
-        <v>348.11</v>
+        <v>731.01</v>
       </c>
       <c r="H8" s="9">
-        <f>SUM(G8,G9)</f>
-        <v>348.11</v>
+        <v>731.01</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,50 +672,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>1368</v>
+        <v>1620</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>60.750000000000007</v>
+        <f t="shared" si="5"/>
+        <v>43.349999999999994</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43943</v>
+        <v>44130</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>3429</v>
+        <v>4244</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
-        <v>263</v>
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>149</v>
       </c>
       <c r="E10" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>1180.8700000000001</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>701.79</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
-        <v>1423.8700000000001</v>
+        <v>849.68999999999994</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(G10,G11)</f>
-        <v>1423.8700000000001</v>
+        <v>849.69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,305 +723,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>1468</v>
+        <v>1678</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>58</v>
       </c>
       <c r="E11" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="7"/>
+        <v>147.89999999999998</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43973</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3641</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
-        <v>212</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>951.88</v>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(F12,F13)</f>
-        <v>1134.1300000000001</v>
+        <f>SUM(G2:G10)</f>
+        <v>3134.38</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(G12,G13)</f>
-        <v>1134.1300000000001</v>
+        <f>SUM(H2:H10)</f>
+        <v>3126.3799999999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1543</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="6"/>
-        <v>182.25</v>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44005</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3841</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
-        <v>898</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>1019.5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1011.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1593</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="8"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44042</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3949</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
-        <v>108</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>508.68</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUM(F16,F17)</f>
-        <v>534.18000000000006</v>
-      </c>
-      <c r="H16" s="9">
-        <v>534.17999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1603</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="10"/>
-        <v>25.5</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44095</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4095</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
-        <v>146</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>687.66</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUM(F18,F19)</f>
-        <v>731.01</v>
-      </c>
-      <c r="H18" s="9">
-        <v>731.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1620</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="12"/>
-        <v>43.349999999999994</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44130</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4244</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="13">C20-C18</f>
-        <v>149</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>701.79</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(F20,F21)</f>
-        <v>849.68999999999994</v>
-      </c>
-      <c r="H20" s="9">
-        <v>849.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1678</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="14"/>
-        <v>147.89999999999998</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="9">
-        <f>SUM(G4:G20)</f>
-        <v>6866.71</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SUM(H4:H20)</f>
-        <v>6858.7100000000009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9">
-        <f>SUM(H22,-G22)</f>
-        <v>-7.9999999999990905</v>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
+        <v>-8.0000000000004547</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,25 +740,76 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="s">
+      <c r="A12" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>156</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>734.76</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>890.31</v>
+      </c>
+      <c r="H12" s="9">
+        <v>890.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1739</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>155.54999999999998</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G14" s="9">
         <f>SUM(G2:G10)</f>
         <v>3134.38</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H14" s="9">
         <f>SUM(H2:H10)</f>
         <v>3126.3799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <f>SUM(H14,-G14)</f>
         <v>-8.0000000000004547</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,26 +791,77 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="s">
+      <c r="A14" s="3">
+        <v>44221</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>471</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>547.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>547.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1769</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>76.5</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G2:G10)</f>
-        <v>3134.38</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H2:H10)</f>
-        <v>3126.3799999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="8" t="s">
+      <c r="G16" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>4572.1900000000005</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>4564.1899999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <f>SUM(H14,-G14)</f>
-        <v>-8.0000000000004547</v>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
+        <v>-8.0000000000009095</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,25 +842,76 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="8" t="s">
+      <c r="A16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4520</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>94.2</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>168.14999999999998</v>
+      </c>
+      <c r="H16" s="9">
+        <v>168.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1798</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="13"/>
+        <v>73.949999999999989</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G18" s="9">
         <f>SUM(G2:G15)</f>
         <v>4572.1900000000005</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <f>SUM(H2:H15)</f>
         <v>4564.1899999999996</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="8" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>-8.0000000000009095</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,25 +893,76 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4620</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>471</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>578.1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>578.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1840</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="15"/>
+        <v>107.1</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>4572.1900000000005</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>4564.1899999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="8" t="s">
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>5318.4400000000005</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>5310.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
         <v>-8.0000000000009095</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,25 +944,76 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="8" t="s">
+      <c r="A20" s="3">
+        <v>44370</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4770</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>706.5</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>859.5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>578.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="17"/>
+        <v>153</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G22" s="9">
         <f>SUM(G2:G19)</f>
         <v>5318.4400000000005</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H22" s="9">
         <f>SUM(H2:H19)</f>
         <v>5310.44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="8" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
         <v>-8.0000000000009095</v>
       </c>
     </row>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
         <v>859.5</v>
       </c>
       <c r="H20" s="9">
-        <v>578.1</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,26 +995,77 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="3">
+        <v>44404</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4800</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>30</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>178.28</v>
+      </c>
+      <c r="H22" s="9">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1911</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="19"/>
+        <v>29.48</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>5318.4400000000005</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>5310.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="8" t="s">
+      <c r="G24" s="9">
+        <f>SUM(G2:G23)</f>
+        <v>6356.22</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM(H2:H23)</f>
+        <v>6347.3399999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9">
-        <f>SUM(H22,-G22)</f>
-        <v>-8.0000000000009095</v>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9">
+        <f>SUM(H24,-G24)</f>
+        <v>-8.8800000000010186</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1046,26 +1046,179 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="8" t="s">
+      <c r="A24" s="3">
+        <v>44433</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4895</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>95</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>471.2</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>565</v>
+      </c>
+      <c r="H24" s="9">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1946</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="20"/>
+        <v>35</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="21"/>
+        <v>93.800000000000011</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44433</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4895</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1946</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44455</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4920</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="24">C28-C26</f>
+        <v>25</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <v>124</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>124</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1946</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(G2:G23)</f>
-        <v>6356.22</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SUM(H2:H23)</f>
-        <v>6347.3399999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="8" t="s">
+      <c r="G30" s="9">
+        <f>SUM(G2:G27)</f>
+        <v>6921.22</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(H2:H27)</f>
+        <v>10412.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9">
-        <f>SUM(H24,-G24)</f>
-        <v>-8.8800000000010186</v>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9">
+        <f>SUM(H30,-G30)</f>
+        <v>3491.12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>3500</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,10 +1170,10 @@
       </c>
       <c r="G28" s="9">
         <f>SUM(F28,F29)</f>
-        <v>124</v>
+        <v>8.7599999999999909</v>
       </c>
       <c r="H28" s="9">
-        <v>3500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,43 +1182,63 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>1946</v>
+        <v>1903</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="E29" s="2">
         <v>2.68</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-115.24000000000001</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="8" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="9">
-        <f>SUM(G2:G27)</f>
-        <v>6921.22</v>
-      </c>
-      <c r="H30" s="9">
-        <f>SUM(H2:H27)</f>
-        <v>10412.34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="8" t="s">
+      <c r="G32" s="9">
+        <f>SUM(G2:G29)</f>
+        <v>6929.9800000000005</v>
+      </c>
+      <c r="H32" s="9">
+        <f>SUM(H2:H29)</f>
+        <v>9982.34</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9">
-        <f>SUM(H30,-G30)</f>
-        <v>3491.12</v>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9">
+        <f>SUM(H32,-G32)</f>
+        <v>3052.3599999999997</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/53ee.xlsx
+++ b/sputnik/personal/ee/53ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1158,14 +1158,14 @@
         <v>4920</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:D29" si="24">C28-C26</f>
+        <f>C28-C24</f>
         <v>25</v>
       </c>
       <c r="E28" s="7">
         <v>4.96</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <f t="shared" ref="F28:F29" si="24">D28*E28</f>
         <v>124</v>
       </c>
       <c r="G28" s="9">
@@ -1185,36 +1185,67 @@
         <v>1903</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="24"/>
+        <f>C29-C25</f>
         <v>-43</v>
       </c>
       <c r="E29" s="2">
         <v>2.68</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-115.24000000000001</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="3">
+        <v>44489</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5010</v>
+      </c>
+      <c r="D30" s="2">
+        <f>C30-C26</f>
+        <v>115</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="25">D30*E30</f>
+        <v>570.4</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(F30,F31)</f>
+        <v>527.52</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1930</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31-C27</f>
+        <v>-16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="25"/>
+        <v>-42.88</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
@@ -1223,12 +1254,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="9">
-        <f>SUM(G2:G29)</f>
-        <v>6929.9800000000005</v>
+        <f>SUM(G2:G31)</f>
+        <v>7457.5</v>
       </c>
       <c r="H32" s="9">
-        <f>SUM(H2:H29)</f>
-        <v>9982.34</v>
+        <f>SUM(H2:H31)</f>
+        <v>9983.34</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
@@ -1238,7 +1269,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(H32,-G32)</f>
-        <v>3052.3599999999997</v>
+        <v>2525.84</v>
       </c>
     </row>
   </sheetData>
